--- a/resource/表現.xlsx
+++ b/resource/表現.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\desktop\palabras\excel\mbr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E0F7F-0C06-473C-968D-14E4EE02A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4EEED0-5F13-4C0A-9C8D-279C23C20E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33690" yWindow="1680" windowWidth="18540" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="310">
   <si>
     <t>es</t>
     <phoneticPr fontId="1"/>
@@ -1928,10 +1928,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[Los últimos estudios revelan que una tercera parte de los anfibios está en paligro de extinción.^Según los estudios más recientes, un tercio de los anfibios está en peligro de extinción.]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>El actual alcalde tiene intención de volver a presentarse como candidato en las próximas elecciones.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2368,10 +2364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cientos de millones de personas en el mudno no pueden ingerir en estos momentos suficientes alimentos.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小河内Ogouchiダムの現在の貯水率は60％で、去年のこの時期より10ポイント下回っている</t>
     <rPh sb="0" eb="3">
       <t>オゴウチ</t>
@@ -2399,6 +2391,1816 @@
   <si>
     <t>El embalse de Ogouchi está actualmente al 60% de su capacidad, diez puntos por debajo del año pasado en estas fechas.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有権者の政治離れで、日本の総選挙の投票率は近年減少し続けている</t>
+    <rPh sb="0" eb="3">
+      <t>ユウケンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ソウセンキョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キンネン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内閣府が発表した世論調査によると、3分の2の日本人は自分の生活に満足している</t>
+    <rPh sb="0" eb="2">
+      <t>ナイカク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨロン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>マンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dos tercios de los japoneses están satisfechos con la vida que llevan, según el sondeo de la opinión pública publicado por la Oficina del Gabinete.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式の数字によると失業率は毎月0.2%ずつ増加している</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シツギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65歳以上の人口は増えているが、18歳以下の人口は減っている</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Las cifras oficiales muestran que el desempleo aumenta a una velocidad del 0,2% mensual.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Según las cifras oficiales, la tasa de desempleo aumenta cada mes (mensualmente) el 0,2%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Va en aumento la población de personas de sesenta y cinco o más años, mientras que disminuye la de personas de dieciocho o menos años.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16は4の2乗に等しい</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15歳から18歳までの5人に1人の若者が常習的に喫煙をしている</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ワカモノ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ジョウシュウテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dieciséis es equivalente a cuatro elevado al cuadrado.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uno de cada cinco jóvenes entre quince y dieciocho años fuma cigarrillos habitualmente.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このマラソン選手は、安静時の心拍数が毎分33回で、運動時には180回まで達する</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シンパクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>マイフン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Este corredor de maratón tiene un corazón que late a 33 pulsaciones por minuto en reposo y llega hasta 180 en esfuerzo máximo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月1日現在の15歳未満の子供の数は、21年連続で減少した</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎年世界では、エイズによる死者の4倍にあたる200万人の子供がただの下痢で死亡している</t>
+    <rPh sb="0" eb="2">
+      <t>マイトシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゲリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El número de niños menores de quince años el 1 de abril pasado ha bajado por vigésimo primer año consecutivo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Por una simple diarrea mueren cada año en el mundo dos millones de niños, cuatro veces más que de SIDA.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国連総会では2005年にクローン技術の人間への応用を禁じる宣言が賛成票84、反対票34、棄権票37で採択された</t>
+    <rPh sb="0" eb="2">
+      <t>コクレン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サンセイヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サイタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La Asamblea General de la ONU aprobó en 2005, por 84 votos a favor, 34 en contra y 37 abstenciones, la declaración de prohibir la aplicación de técnicas de clonación al ser humano.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペインの魚の消費は1人あたり年40キロで、世界で第2位である</t>
+    <rPh sb="5" eb="6">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>España es el segundo país del mundo que más pescado consume: cuarenta kilos por habitante y año.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2005年広島と長崎は60回目の原爆記念日を迎えた</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナガサキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンバク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>キネンビ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ムカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンクールの参加者名簿をアルファベット順に作成する必要がある</t>
+    <rPh sb="6" eb="9">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Es necesario confeccionar por orden alfabético la lista de participantes en el concurso.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>En 2005 Hiroshima y Nagasaki [recordaron^conmemoraron^rememoraron] el sesenta aniversario del día de la bomba atómica.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オランダでは世界で初めて積極的安楽死を合法化する法律が2001年に可決された</t>
+    <rPh sb="6" eb="8">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>アンラクシ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ゴウホウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウリツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Holanda se convirtió en 2001 en el primer país del mundo que aprueba una ley que legaliza la eutanasia activa.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Por primera vez en la historia, Holanda aprobó en 2001 una ley que legaliza la eutanasia activa.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本人の女性が生涯に産む子供の数(合計特殊出生率)は平均1.34人で、人口を維持するのに必要といわれる2.08人を大きく下回っている</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シタマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[La tasa media de fecundidad japonesa es de [1,34^uno con treinta y cuatro] hijos, cifra muy inferior a [2,08^dos con cero ocho] que, según dicen, permite mantener la población actual.^Cada japonesa tiene un promedio de [1,34^uno con treinta y cuatro] hijos a lo largo de su vida, cifra muy inferior a [2,08^dos con cero ocho] que, según dicen, permite mantener la población actual.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米国とドイツは世界最大のタバコの輸出国である</t>
+    <rPh sb="0" eb="2">
+      <t>ベイコク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユシュツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Estados Unidos y Alemania son los primeros exportadores de cigarrillos del mundo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昨日の東京の最低気温は28.7度で、7月の朝の気温としては観測史上最高だった</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ayer Tokio registró la temperatura mínima de 28.7 grados, la cifra más alta de la mañana del mes de julio desde que empezaron a hacer las observaciones meteorológicas.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都内を走る自動車の平均速度は時速18キロにすぎない</t>
+    <rPh sb="0" eb="2">
+      <t>トナイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8対1の比率で美容学校は理容学校より生徒の数が多い</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La velocidad media de los automóviles que circulan por la ciudad de Tokio solo es de dieciocho kilómetros por hora.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚生労働省の推計では、日本の人口は2007年に減り始め、100年後には半減して6700万人になるとみられている</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ロウドウショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ネンゴ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンゲン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El ministerio de Sanidad, Trabajo y Bienestar prevé que la población japonesa [empiece^empezará] a descender en el año 2007 para reducirse en cien años a la mitad de la población actual con 67 millones de habitantes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Las previsiones del Ministerio de Sanidad, Trabajo y Bienestar señalan que la población japonesa empezará a descender en el año 2007 para reducirse en cien años a la mitad de la población actual con 67 millones de habitantes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調理には浄水器を通した水を、飲み水にはミネラルウォーターをとする消費者も少なくない</t>
+    <rPh sb="0" eb="2">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジョウスイキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ショウヒシャ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No son pocos los consumidores que usan agua purificada para cocinar y beben agua mineral.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊香保町では昨日の午後5時から9時の間に162ミリの雨が降った</t>
+    <rPh sb="0" eb="3">
+      <t>イカホ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hubo una precipitación de [162^ciento sesenta y dos] milímetros en Ikaho entre las cinco y las nueve de la tarde de ayer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これから20年間に世界的な規模で、人口の高齢化が進むであろう</t>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セカイテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>コウレイカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Durante los próximos veinte años se producirá un envejecimiento de la población a escala mundial.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年の上半期の観光収入は昨年の同期の数字を上回った</t>
+    <rPh sb="0" eb="2">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カミハンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクネン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ウワマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Los ingresos por turismo en el primer semestre de este año [han superado^han sido superiores] a los registrados en el mismo período del año pasado.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は今年中に契約書にサインしなければならない</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年になってもう5千人以上の人が交通事故で亡くなった</t>
+    <rPh sb="0" eb="2">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tengo que firmar el contrato antes de que finalice este mes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Más de cinco mil personas ya perdieron la vida en accidentes de circulación en lo que va de año.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京で積雪が20センチを越えたのは10年ぶりのことである</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セキセツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の祖父母は結婚して50年になります</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソフボ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッコン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Es la primera vez en los últimos diez años que ha nevado más de veinte centímetros en Tokio.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Por primera vez en los últimos diez años se ha acumulado más de veinte centímetros de nieve en Tokio.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hace cincuenta años que mis abuelos están casados.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mis abuelos llevan cincuenta años casados.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼らが名古屋で小さなパン屋を開業したのは今から12年前です</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ナゴヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事故発生から3日後まで、犠牲者の数は判明しなかった</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ギセイシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Los últimos estudios revelan que una tercera parte de los anfibios está en peligro de extinción.^Según los estudios más recientes, un tercio de los anfibios está en peligro de extinción.]</t>
+  </si>
+  <si>
+    <t>Fue hace doce años cuando ellos abrieron una pequeña panadería en Nagoya.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No se pudo concretar el número de víctimas hasta tres días después del accidente.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェルナンドは1990年11月3日に生まれた</t>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fernando nació el (día) 3 de noviembre de 1990.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このスーパーマーケットの休業日は毎月第三月曜日です</t>
+    <rPh sb="12" eb="15">
+      <t>キュウギョウビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ゲツヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その冒険家は遠征中に48歳で亡くなった</t>
+    <rPh sb="2" eb="5">
+      <t>ボウケンカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>エンセイチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Este supermercado cierra los terceros lunes de mes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El aventurero murió [a los^a la edad de] cuarenta y ocho años durante la expedición.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校のプールは長さ25メートル、幅12.5メートルで、深さは浅いところで1メートル、深いところで1.4メートルあります</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La piscina del colegio mide veinticinco metros de largo por doce [con^coma] cinco de ancho y tiene una profundidad mínima de un metro y máxima de un metro y cuarenta centímetros.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この地区では6階建て以上の建築物は禁止されている</t>
+    <rPh sb="2" eb="4">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケンチクブツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この川は浅いので大型の船は航行できない</t>
+    <rPh sb="2" eb="3">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オオガタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>En este barrio está prohibido construir edificios con alturas superiores a seis plantas.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>En este barrio no se pueden construir edificios de seis o más pisos.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Este río no es navegable en buques porque no tiene suficiente profundidad.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Los buques no pueden navegar en este río porque no tiene suficiente profundidad.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琵琶湖は日本最大の湖で、周囲の長さが約235キロあります</t>
+    <rPh sb="0" eb="3">
+      <t>ビワコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミズウミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20歳の日本人男性の平均的体格は、身長170.7センチ、体重66キロ、胸囲86.8センチである</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘイキンテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El japonés medio de veinte años mide 170,7 centímetros, pesa 66 kilos y tiene un perímetro torácico de 86,8 centímetros.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El Biwa es el lago más grande de Japón con un perímetro de unos 235 kilómetros.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この橋は最大40トンの荷重に耐えられるように設計されている</t>
+    <rPh sb="2" eb="3">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タバコ規制枠組み条約は、タバコの形をしたチョコレートやおもちゃの生産を禁じている</t>
+    <rPh sb="3" eb="5">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>グ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウヤク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Este puente está diseñado para soportar una carga máxima de cuarenta toneladas.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El Convenio Marco sobre el Control del Tabaco prohíbe fabricar chocolates y juguetes con forma de cigarrillo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仙台市の総面積は788平方キロメートルで、政令指定都市の中では札幌市に次ぐ第2位の広さである</t>
+    <rPh sb="0" eb="3">
+      <t>センダイシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ソウメンセキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘイホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>サッポロシ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La ciudad de Sendai [tiene una extensión^cuenta con una superficie] total de 788 kilómetros cuadrados y es la segunda ciudad más grande, después de la ciudad de Sapporo, entre las designadas por decreto ley.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La superficie total de la ciudad de Sendai es de 788 kilómetros cuadrados y es la segunda ciudad con mayor superficie, después de la ciudad de Sapporo, entre las designadas por decreto ley.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地球には14億立方キロメートルの水があると言われている</t>
+    <rPh sb="0" eb="2">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リッポウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京の人口密度は1平方キロあたり840人で先進諸国の中で最高です</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘイホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショコク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Se dice que la Tierra dispone de mil cuatrocientos millones de kilómetros cúbicos de agua.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tokio tiene una densidad de población de 840 personas por kilómetro cuadrado, la cifra más alta de los países desarrollados.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私の家は路地の突き当りにあります</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ロジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mi casa está al fondo del callejón.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八丈島は、東京の南方海上287キロメートルに位置している</t>
+    <rPh sb="0" eb="3">
+      <t>ハチジョウジマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナンポウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hachijojima [está^se encuentra] situada a 287 kilómetros (mar adentro) al sur de Tokio.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>札幌市は東経141度21分、北緯43度3分に位置している</t>
+    <rPh sb="0" eb="3">
+      <t>サッポロシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホクイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La ciudad de Sapporo está situada a [141^ciento cuarenta y un] grados [21^veintiún] minutos (de) longitud este y [43^cuarenta y tres] grados 3 minutos (de) latitud norte.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京と札幌間の距離は1000キロ以上あります</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地球は地軸を軸に、北極星から見て反時計回りに自転している</t>
+    <rPh sb="0" eb="2">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チジク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ホッキョクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Entre Tokio y Sapporo hay más de mil kilómetros.^La distancia (que hay) entre Tokio y Sapporo es de más de mil kilómetros^Tokio está a más de mil kilómetros de Sapporo.^Tokio dista de Sapporo más de mil kilómetros.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La Tierra gira sobre el eje de rotación en sentido contrario a las agujas del reloj, según se mira desde la estrella polar.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼のやっていることは彼の言っていることと矛盾する</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ムジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのコンサートに5万人が詰めかけた</t>
+    <rPh sb="9" eb="11">
+      <t>マンニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Lo que hace él contradice lo que dice.^Lo que hace él se contradice con lo que dice^Lo que hace él es contradictorio con lo que dice.^Lo que hace él está en contradicción con lo que dice.^Hay una contradicción entre lo que hace él y lo que dice.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本にとって、京都議定書に定められた目標の達成はほど遠い</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ギテイショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール飲料を飲みすぎると肝臓により大きな負担がかかります</t>
+    <rPh sb="5" eb="7">
+      <t>インリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Japón está lejos de alcanzar el objetivo estipulado en el Protocolo de Kioto.^Para japón el objetivo estipulado en el Protocolo de Kioto es difícilmente alcanzable.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[El consumo excesivo de bebidas alcohólicas exige un mayor esfuerzo del hígado.^Si se toman excesivamente bebidas alcohólicas, el hígado tiene que realizar un mayor esfuerzo.]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はこの脚本家の芝居は絶対に見逃さない</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キャクホンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シバイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミノガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所得税の改革案に対して、今回国民は本気で抗議している</t>
+    <rPh sb="0" eb="3">
+      <t>ショトクゼイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コクミン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホンキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No me pierdo ninguna obra de teatro de este guionista.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Esta vez la protesta del pueblo contra el proyecto de reforma del impuesto sobre la renta va en serio.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開店まで1週間あるので、内装の変更はまだ間に合います</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は駅と家の途中にあるスーパーマーケットで買い物をする</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Como tenemos una semana para la inauguración, todavía estamos a tiempo de cambiar la decoración interior.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hago compras en un supermercado que hay a mitad de trayecto entre la estación y mi casa.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マドリード市は2004年3月にテロの標的となった</t>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>我が家を改築したついでに床暖房システムを設置した</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイチク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>La ciudad de Madrid fue objeto de atentados terroristas en marzo de 2004.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hemos aprovechado la reforma de nuestra casa para instalar el sistema de calefacción del suelo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昨日の試合後の記者会見で、そのサッカー選手は今シーズン限りで引退することを表明した</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>インタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>En una conferencia de prensa celebrada después del partido de ayer, el jugador de fútbol declaró que iba a [abandonar su actividad profesional^colgar las botas] al terminar la presente temporada.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸性雨はかつて人類が経験したことのない深刻な問題である</t>
+    <rPh sb="0" eb="3">
+      <t>サンセイウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンコク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Las lluvias ácidas [constituyen^son] un grave problema que la humanidad nunca ha experimentado.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その記事には先月辞任した参議院議員の署名がある</t>
+    <rPh sb="2" eb="4">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジニン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サンギイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ギイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El artículo viene firmado por el senador que dimitió el mes pasado.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cientos de millones de personas en el mundo no pueden ingerir en estos momentos suficientes alimentos.</t>
+  </si>
+  <si>
+    <t>Debido al desinterés de los electores por la política, sigue bajando en los últimos años el índice de participación en las elecciones generales de Japón.</t>
+  </si>
+  <si>
+    <t>Las academias de estética tienen más alumnos que las de peluquería en una proporción de ocho a uno.</t>
+  </si>
+  <si>
+    <t>[Cincuenta mil personas asistieron al concierto.^El concierto tuvo una asistencia de cincuenta mil personas.]</t>
   </si>
 </sst>
 </file>
@@ -2781,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2921,7 +4723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="37.5">
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
@@ -3273,7 +5075,7 @@
         <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="37.5">
@@ -3281,166 +5083,672 @@
         <v>141</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="37.5">
       <c r="B63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="56.25">
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="37.5">
       <c r="B65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="75">
       <c r="B66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="37.5">
       <c r="B67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="37.5">
       <c r="B68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="37.5">
       <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="93.75">
       <c r="B70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="37.5">
       <c r="B71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="56.25">
       <c r="B72" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="56.25">
       <c r="B73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="37.5">
       <c r="B76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="37.5">
       <c r="B77" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="37.5">
       <c r="B78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="56.25">
+      <c r="B79" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="56.25">
+      <c r="B80" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="C80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="37.5">
+      <c r="B81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="37.5">
+      <c r="B82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="37.5">
+      <c r="B84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="37.5">
+      <c r="B85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="37.5">
+      <c r="B86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="37.5">
       <c r="A87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="56.25">
+      <c r="B88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="37.5">
+      <c r="B89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="56.25">
+      <c r="B90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="37.5">
+      <c r="B91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="37.5">
+      <c r="B92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="112.5">
+      <c r="B93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="37.5">
+      <c r="B94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="56.25">
+      <c r="B95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="37.5">
+      <c r="B96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="37.5">
+      <c r="B97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="75">
+      <c r="B98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="37.5">
+      <c r="B99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="37.5">
+      <c r="B100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="37.5">
+      <c r="B101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="56.25">
+      <c r="B102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="37.5">
+      <c r="B104" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="37.5">
+      <c r="B105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="37.5">
+      <c r="B107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="37.5">
+      <c r="B108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="37.5">
+      <c r="B111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="56.25">
+      <c r="B112" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="37.5">
+      <c r="B113" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="37.5">
+      <c r="B114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="37.5">
+      <c r="B115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="37.5">
+      <c r="B116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="37.5">
+      <c r="B117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="37.5">
+      <c r="B118" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="56.25">
+      <c r="B119" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="37.5">
+      <c r="B120" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="37.5">
+      <c r="B121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="37.5">
+      <c r="B123" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="56.25">
+      <c r="B124" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="75">
+      <c r="B125" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="37.5">
       <c r="A126" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="75">
       <c r="A127" t="s">
         <v>19</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="37.5">
+      <c r="B128" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="56.25">
+      <c r="B129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="56.25">
+      <c r="B130" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="37.5">
+      <c r="B132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="37.5">
+      <c r="B133" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="37.5">
+      <c r="B134" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="37.5">
+      <c r="B135" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="37.5">
+      <c r="B136" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="56.25">
+      <c r="B137" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="37.5">
+      <c r="B138" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:1">

--- a/resource/表現.xlsx
+++ b/resource/表現.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4EEED0-5F13-4C0A-9C8D-279C23C20E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291831C3-D44B-4050-ABD6-7471F99E0496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="1935" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4583,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
